--- a/data/countries/barbados.xlsx
+++ b/data/countries/barbados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E62A54-E618-9841-A29E-C4B97648D4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8AEB71-A9EF-0043-BCED-E6E9895FA7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="27640" windowHeight="16060" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="27640" windowHeight="16060" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>General</t>
   </si>
@@ -150,7 +150,10 @@
     <t>Only travel, converted from billions USD to USD</t>
   </si>
   <si>
-    <t>2020 (yearly)</t>
+    <t>2020-2022 (yearly)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -272,7 +275,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -593,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74CC475-90E8-AE41-9E12-080CDE43B3C3}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -803,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D00AED-5EBD-974C-A23B-D47D16AC0D47}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,49 +1141,94 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>28182</v>
+      </c>
+      <c r="G13">
+        <v>253</v>
+      </c>
+      <c r="H13">
+        <f>G13/F13</f>
+        <v>8.9773614363778294E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D14" s="15"/>
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>76950</v>
+      </c>
+      <c r="G14">
+        <v>308</v>
+      </c>
+      <c r="H14">
+        <f>G14/F14</f>
+        <v>4.002599090318389E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D15" s="15"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D16" s="15"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="15"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="15"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="15"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="15"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="15"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="15"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="15"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="15"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="15"/>
+      <c r="D26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
